--- a/FBAutomation/Data/CampaignData.xlsx
+++ b/FBAutomation/Data/CampaignData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumWorkspace\ws1\FBAutomation\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="CampaignAcquisition" sheetId="4" r:id="rId4"/>
     <sheet name="CamapignTrigger" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:B16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,9 +65,6 @@
     <t>SMS Acquisition 26 May</t>
   </si>
   <si>
-    <t>CampaignSMSBrod19may</t>
-  </si>
-  <si>
     <t>3OTaCGoiPP</t>
   </si>
   <si>
@@ -82,6 +75,9 @@
   </si>
   <si>
     <t>SMSBroadcast1June</t>
+  </si>
+  <si>
+    <t>CampaignSMSTrig19may</t>
   </si>
 </sst>
 </file>
@@ -472,9 +468,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -489,13 +485,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -527,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -641,9 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -655,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>

--- a/FBAutomation/Data/CampaignData.xlsx
+++ b/FBAutomation/Data/CampaignData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FishbowlGitCode\FBAutomation\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="CampaignSMSInformational" sheetId="3" r:id="rId3"/>
     <sheet name="CampaignAcquisition" sheetId="4" r:id="rId4"/>
     <sheet name="CamapignTrigger" sheetId="5" r:id="rId5"/>
+    <sheet name="RunStatus" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:B16"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Power up your day with My Bistro! $1 off any juice, smoothie, bowl or oatmeal. Exp. Date: xx/xx/xxxx</t>
   </si>
@@ -65,6 +70,9 @@
     <t>SMS Acquisition 26 May</t>
   </si>
   <si>
+    <t>CampaignSMSBrod19may</t>
+  </si>
+  <si>
     <t>3OTaCGoiPP</t>
   </si>
   <si>
@@ -77,7 +85,58 @@
     <t>SMSBroadcast1June</t>
   </si>
   <si>
-    <t>CampaignSMSTrig19may</t>
+    <t>SMSBroadCastStoreRun</t>
+  </si>
+  <si>
+    <t>com.fishbowl.testcases</t>
+  </si>
+  <si>
+    <t>SMSBraodCastBothRun</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>SMSBroadCastAllRun</t>
+  </si>
+  <si>
+    <t>SMSBroadCastCoupon</t>
+  </si>
+  <si>
+    <t>SMSBroadCastExtSegmRun</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>stg-jamba</t>
+  </si>
+  <si>
+    <t>InformationalZipRun</t>
+  </si>
+  <si>
+    <t>AcquisitionRun</t>
+  </si>
+  <si>
+    <t>InformationalStoreRun</t>
+  </si>
+  <si>
+    <t>SMSBroadNationalRun</t>
+  </si>
+  <si>
+    <t>TriggerListRun</t>
+  </si>
+  <si>
+    <t>TriggerStoreRun</t>
+  </si>
+  <si>
+    <t>EndUserPortalTest</t>
+  </si>
+  <si>
+    <t>eup_regForm</t>
+  </si>
+  <si>
+    <t>updateMemberProfile</t>
   </si>
 </sst>
 </file>
@@ -471,30 +530,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
   </sheetData>
@@ -509,11 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" style="1" customWidth="1"/>
@@ -523,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -637,7 +701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,7 +715,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -659,6 +725,175 @@
       </c>
       <c r="D1" s="8">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
